--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B1C7DF-0D88-4683-A11F-275E40CE2840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1B71A3-19BC-4B9B-950F-39A7BC1E7BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,7 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
     <t>Тариф, руб.</t>
-  </si>
-  <si>
-    <t>Сумма, руб./кв.м</t>
   </si>
   <si>
     <t>Срок оплаты</t>
@@ -43,13 +37,7 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
     <t>Пени за 1 день</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
   </si>
   <si>
     <t>Аминова</t>
@@ -160,19 +148,31 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Общая сумма</t>
+    <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь</t>
+    <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки</t>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате</t>
+    <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Штраф, руб</t>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Сумма, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,6 +211,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF282C34"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,16 +246,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,14 +493,18 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
@@ -505,39 +539,39 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
+      <c r="J2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -556,13 +590,13 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
         <v>70</v>
       </c>
       <c r="D3" s="2">
@@ -573,16 +607,16 @@
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>2695</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>44813</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>44805</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="2">
@@ -610,13 +644,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
@@ -627,16 +661,16 @@
         <f t="shared" si="1"/>
         <v>2675.75</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>44813</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>44806</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -664,13 +698,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4">
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -681,16 +715,16 @@
         <f t="shared" si="1"/>
         <v>2656.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>44813</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>44807</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -718,13 +752,13 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -735,16 +769,16 @@
         <f t="shared" si="1"/>
         <v>2637.25</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>44813</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>44808</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -772,13 +806,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -789,16 +823,16 @@
         <f t="shared" si="1"/>
         <v>2618</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>44813</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>44809</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -826,13 +860,13 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -843,16 +877,16 @@
         <f t="shared" si="1"/>
         <v>2598.75</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>44813</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>44810</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -880,13 +914,13 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -897,16 +931,16 @@
         <f t="shared" si="1"/>
         <v>2579.5</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>44813</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>44811</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -934,13 +968,13 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
@@ -951,16 +985,16 @@
         <f t="shared" si="1"/>
         <v>2560.25</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>44813</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>44812</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -988,13 +1022,13 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -1005,16 +1039,16 @@
         <f t="shared" si="1"/>
         <v>2541</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>44813</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>44813</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1042,13 +1076,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
@@ -1059,16 +1093,16 @@
         <f t="shared" si="1"/>
         <v>2521.75</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>44813</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>44814</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1096,13 +1130,13 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
         <v>65</v>
       </c>
       <c r="D13" s="2">
@@ -1113,16 +1147,16 @@
         <f t="shared" si="1"/>
         <v>2502.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>44813</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>44815</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1150,13 +1184,13 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
@@ -1167,16 +1201,16 @@
         <f t="shared" si="1"/>
         <v>2483.25</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>44813</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>44816</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1204,13 +1238,13 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4">
         <v>64</v>
       </c>
       <c r="D15" s="2">
@@ -1221,16 +1255,16 @@
         <f t="shared" si="1"/>
         <v>2464</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>44813</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>44817</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1258,13 +1292,13 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4">
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
@@ -1275,16 +1309,16 @@
         <f t="shared" si="1"/>
         <v>2444.75</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>44813</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>44818</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1312,13 +1346,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4">
         <v>63</v>
       </c>
       <c r="D17" s="2">
@@ -1329,16 +1363,16 @@
         <f t="shared" si="1"/>
         <v>2425.5</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>44813</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>44819</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>6</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1366,13 +1400,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
@@ -1383,16 +1417,16 @@
         <f t="shared" si="1"/>
         <v>2406.25</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>44813</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>44820</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>7</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1420,13 +1454,13 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
         <v>62</v>
       </c>
       <c r="D19" s="2">
@@ -1437,16 +1471,16 @@
         <f t="shared" si="1"/>
         <v>2387</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>44813</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>44821</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>8</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1474,13 +1508,13 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="4">
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
@@ -1491,16 +1525,16 @@
         <f t="shared" si="1"/>
         <v>2367.75</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>44813</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>44822</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>9</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1528,13 +1562,13 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4">
         <v>61</v>
       </c>
       <c r="D21" s="2">
@@ -1545,16 +1579,16 @@
         <f t="shared" si="1"/>
         <v>2348.5</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>44813</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>44823</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>10</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1582,13 +1616,13 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
@@ -1599,16 +1633,16 @@
         <f t="shared" si="1"/>
         <v>2329.25</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>44813</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>44824</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>11</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1636,13 +1670,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4">
         <v>60</v>
       </c>
       <c r="D23" s="2">
@@ -1653,16 +1687,16 @@
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>44813</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>44825</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>12</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1690,13 +1724,13 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4">
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
@@ -1707,16 +1741,16 @@
         <f t="shared" si="1"/>
         <v>2290.75</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>44813</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>44826</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>13</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1744,13 +1778,13 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4">
         <v>59</v>
       </c>
       <c r="D25" s="2">
@@ -1761,16 +1795,16 @@
         <f t="shared" si="1"/>
         <v>2271.5</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>44813</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>44827</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>14</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1798,13 +1832,13 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4">
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
@@ -1815,16 +1849,16 @@
         <f t="shared" si="1"/>
         <v>2252.25</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>44813</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>44828</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>15</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1852,13 +1886,13 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4">
         <v>58</v>
       </c>
       <c r="D27" s="2">
@@ -1869,16 +1903,16 @@
         <f t="shared" si="1"/>
         <v>2233</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>44813</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <v>44829</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>16</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1906,13 +1940,13 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4">
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
@@ -1923,16 +1957,16 @@
         <f t="shared" si="1"/>
         <v>2213.75</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>44813</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>44830</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>17</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="4">
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1960,13 +1994,13 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4">
         <v>57</v>
       </c>
       <c r="D29" s="2">
@@ -1977,16 +2011,16 @@
         <f t="shared" si="1"/>
         <v>2194.5</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>44813</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>44831</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>18</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -2014,13 +2048,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="4">
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
@@ -2031,16 +2065,16 @@
         <f t="shared" si="1"/>
         <v>2175.25</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>44813</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>44832</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>19</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -2068,13 +2102,13 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="B31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="4">
         <v>56</v>
       </c>
       <c r="D31" s="2">
@@ -2085,16 +2119,16 @@
         <f t="shared" si="1"/>
         <v>2156</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>44813</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <v>44833</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>20</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -2122,13 +2156,13 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4">
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
@@ -2139,16 +2173,16 @@
         <f t="shared" si="1"/>
         <v>2136.75</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>44813</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>44834</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>21</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2176,13 +2210,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4">
         <v>55</v>
       </c>
       <c r="D33" s="2">
@@ -2193,16 +2227,16 @@
         <f t="shared" si="1"/>
         <v>2117.5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>44813</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>44835</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>22</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2230,13 +2264,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4">
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
@@ -2247,16 +2281,16 @@
         <f t="shared" si="1"/>
         <v>2098.25</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>44813</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>44836</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>23</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2284,13 +2318,13 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="9">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4">
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2301,16 +2335,16 @@
         <f t="shared" si="1"/>
         <v>1039.5</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>44813</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>44837</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>24</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2338,13 +2372,13 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="9">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4">
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2355,16 +2389,16 @@
         <f t="shared" si="1"/>
         <v>1029.875</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>44813</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="6">
         <v>44838</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>25</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2392,13 +2426,13 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="9">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4">
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2409,16 +2443,16 @@
         <f t="shared" si="1"/>
         <v>1020.25</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>44813</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <v>44839</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>26</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2446,13 +2480,13 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="9">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="4">
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2463,16 +2497,16 @@
         <f t="shared" si="1"/>
         <v>1010.625</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>44813</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="6">
         <v>44840</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>27</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2529,8 +2563,8 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
+      <c r="B40" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="2">
         <f>SUM(K3:K38)-0.25</f>
@@ -2562,8 +2596,8 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
+      <c r="B41" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2595,12 +2629,12 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="8">
-        <f>MAX(G12:G38)</f>
-        <v>44840</v>
+      <c r="B42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="10">
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2628,8 +2662,8 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
-        <v>49</v>
+      <c r="B43" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
@@ -29457,5 +29491,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT123\IT_LR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT123\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A71C55A-2CCA-4DD7-96F7-A5222B703CD9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D90714-124C-4FD5-8232-F6F376750306}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7965" xr2:uid="{EA7828D1-7521-4F19-AABC-E6DD6B6E2141}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Максимальная сумма просрочки, руб.</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32C36C-4770-4149-AB96-4E38B3359F68}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -617,12 +617,12 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>1.1*15</f>
-        <v>16.5</v>
+        <f>1.1*35</f>
+        <v>38.5</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
-        <v>1155</v>
+        <f>C3*D3</f>
+        <v>2695</v>
       </c>
       <c r="F3" s="5">
         <v>44813</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="K3" s="2">
         <f>E3+J3</f>
-        <v>1155</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -656,12 +656,12 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="1">1.1*15</f>
-        <v>16.5</v>
+        <f t="shared" ref="D4:D38" si="0">1.1*35</f>
+        <v>38.5</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>1146.75</v>
+        <f>C4*D4</f>
+        <v>2675.75</v>
       </c>
       <c r="F4" s="5">
         <v>44813</v>
@@ -676,12 +676,12 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
-        <v>1146.75</v>
+        <f>E4+J4</f>
+        <v>2675.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,12 +695,12 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>1138.5</v>
+        <f>C5*D5</f>
+        <v>2656.5</v>
       </c>
       <c r="F5" s="5">
         <v>44813</v>
@@ -715,12 +715,12 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
-        <v>1138.5</v>
+        <f>E5+J5</f>
+        <v>2656.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -734,12 +734,12 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>1130.25</v>
+        <f>C6*D6</f>
+        <v>2637.25</v>
       </c>
       <c r="F6" s="5">
         <v>44813</v>
@@ -754,12 +754,12 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
-        <v>1130.25</v>
+        <f>E6+J6</f>
+        <v>2637.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -773,12 +773,12 @@
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>1122</v>
+        <f>C7*D7</f>
+        <v>2618</v>
       </c>
       <c r="F7" s="5">
         <v>44813</v>
@@ -793,12 +793,12 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
-        <v>1122</v>
+        <f>E7+J7</f>
+        <v>2618</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -812,12 +812,12 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>1113.75</v>
+        <f>C8*D8</f>
+        <v>2598.75</v>
       </c>
       <c r="F8" s="5">
         <v>44813</v>
@@ -832,12 +832,12 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>1113.75</v>
+        <f>E8+J8</f>
+        <v>2598.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -851,12 +851,12 @@
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>1105.5</v>
+        <f>C9*D9</f>
+        <v>2579.5</v>
       </c>
       <c r="F9" s="5">
         <v>44813</v>
@@ -871,12 +871,12 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
-        <v>1105.5</v>
+        <f>E9+J9</f>
+        <v>2579.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,12 +890,12 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>1097.25</v>
+        <f>C10*D10</f>
+        <v>2560.25</v>
       </c>
       <c r="F10" s="5">
         <v>44813</v>
@@ -910,12 +910,12 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
-        <v>1097.25</v>
+        <f>E10+J10</f>
+        <v>2560.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,12 +929,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>1089</v>
+        <f>C11*D11</f>
+        <v>2541</v>
       </c>
       <c r="F11" s="5">
         <v>44813</v>
@@ -949,12 +949,12 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
-        <v>1089</v>
+        <f>E11+J11</f>
+        <v>2541</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -968,12 +968,12 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>1080.75</v>
+        <f>C12*D12</f>
+        <v>2521.75</v>
       </c>
       <c r="F12" s="5">
         <v>44813</v>
@@ -988,12 +988,12 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
-        <v>1090.75</v>
+        <f>E12+J12</f>
+        <v>2531.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1007,12 +1007,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>1072.5</v>
+        <f>C13*D13</f>
+        <v>2502.5</v>
       </c>
       <c r="F13" s="5">
         <v>44813</v>
@@ -1027,12 +1027,12 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
-        <v>1092.5</v>
+        <f>E13+J13</f>
+        <v>2522.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1046,12 +1046,12 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>1064.25</v>
+        <f>C14*D14</f>
+        <v>2483.25</v>
       </c>
       <c r="F14" s="5">
         <v>44813</v>
@@ -1066,12 +1066,12 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
-        <v>1094.25</v>
+        <f>E14+J14</f>
+        <v>2513.25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1085,12 +1085,12 @@
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>1056</v>
+        <f>C15*D15</f>
+        <v>2464</v>
       </c>
       <c r="F15" s="5">
         <v>44813</v>
@@ -1105,12 +1105,12 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
-        <v>1096</v>
+        <f>E15+J15</f>
+        <v>2504</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1124,12 +1124,12 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>1047.75</v>
+        <f>C16*D16</f>
+        <v>2444.75</v>
       </c>
       <c r="F16" s="5">
         <v>44813</v>
@@ -1144,12 +1144,12 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
-        <v>1097.75</v>
+        <f>E16+J16</f>
+        <v>2494.75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1163,12 +1163,12 @@
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>1039.5</v>
+        <f>C17*D17</f>
+        <v>2425.5</v>
       </c>
       <c r="F17" s="5">
         <v>44813</v>
@@ -1183,12 +1183,12 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
-        <v>1099.5</v>
+        <f>E17+J17</f>
+        <v>2485.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1202,12 +1202,12 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>1031.25</v>
+        <f>C18*D18</f>
+        <v>2406.25</v>
       </c>
       <c r="F18" s="5">
         <v>44813</v>
@@ -1222,12 +1222,12 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
-        <v>1101.25</v>
+        <f>E18+J18</f>
+        <v>2476.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1241,12 +1241,12 @@
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>1023</v>
+        <f>C19*D19</f>
+        <v>2387</v>
       </c>
       <c r="F19" s="5">
         <v>44813</v>
@@ -1261,12 +1261,12 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
-        <v>1103</v>
+        <f>E19+J19</f>
+        <v>2467</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1280,12 +1280,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>1014.75</v>
+        <f>C20*D20</f>
+        <v>2367.75</v>
       </c>
       <c r="F20" s="5">
         <v>44813</v>
@@ -1300,12 +1300,12 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
-        <v>1104.75</v>
+        <f>E20+J20</f>
+        <v>2457.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1319,12 +1319,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>1006.5</v>
+        <f>C21*D21</f>
+        <v>2348.5</v>
       </c>
       <c r="F21" s="5">
         <v>44813</v>
@@ -1339,12 +1339,12 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
-        <v>1106.5</v>
+        <f>E21+J21</f>
+        <v>2448.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1358,12 +1358,12 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>998.25</v>
+        <f>C22*D22</f>
+        <v>2329.25</v>
       </c>
       <c r="F22" s="5">
         <v>44813</v>
@@ -1378,12 +1378,12 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
-        <v>1108.25</v>
+        <f>E22+J22</f>
+        <v>2439.25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1397,12 +1397,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>990</v>
+        <f>C23*D23</f>
+        <v>2310</v>
       </c>
       <c r="F23" s="5">
         <v>44813</v>
@@ -1417,12 +1417,12 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
-        <v>1110</v>
+        <f>E23+J23</f>
+        <v>2430</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1430,18 +1430,18 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>981.75</v>
+        <f>C24*D24</f>
+        <v>2290.75</v>
       </c>
       <c r="F24" s="5">
         <v>44813</v>
@@ -1456,12 +1456,12 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
-        <v>1111.75</v>
+        <f>E24+J24</f>
+        <v>2420.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,18 +1469,18 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2">
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>973.5</v>
+        <f>C25*D25</f>
+        <v>2271.5</v>
       </c>
       <c r="F25" s="5">
         <v>44813</v>
@@ -1495,12 +1495,12 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
-        <v>1113.5</v>
+        <f>E25+J25</f>
+        <v>2411.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1508,18 +1508,18 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2">
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>965.25</v>
+        <f>C26*D26</f>
+        <v>2252.25</v>
       </c>
       <c r="F26" s="5">
         <v>44813</v>
@@ -1534,12 +1534,12 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
-        <v>1115.25</v>
+        <f>E26+J26</f>
+        <v>2402.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1547,18 +1547,18 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>957</v>
+        <f>C27*D27</f>
+        <v>2233</v>
       </c>
       <c r="F27" s="5">
         <v>44813</v>
@@ -1573,12 +1573,12 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
-        <v>1117</v>
+        <f>E27+J27</f>
+        <v>2393</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1586,18 +1586,18 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="2">
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>948.75</v>
+        <f>C28*D28</f>
+        <v>2213.75</v>
       </c>
       <c r="F28" s="5">
         <v>44813</v>
@@ -1612,12 +1612,12 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
-        <v>1118.75</v>
+        <f>E28+J28</f>
+        <v>2383.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1625,18 +1625,18 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2">
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>940.5</v>
+        <f>C29*D29</f>
+        <v>2194.5</v>
       </c>
       <c r="F29" s="5">
         <v>44813</v>
@@ -1651,12 +1651,12 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
-        <v>1120.5</v>
+        <f>E29+J29</f>
+        <v>2374.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,18 +1664,18 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>932.25</v>
+        <f>C30*D30</f>
+        <v>2175.25</v>
       </c>
       <c r="F30" s="5">
         <v>44813</v>
@@ -1690,12 +1690,12 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
-        <v>1122.25</v>
+        <f>E30+J30</f>
+        <v>2365.25</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1703,18 +1703,18 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2">
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>924</v>
+        <f>C31*D31</f>
+        <v>2156</v>
       </c>
       <c r="F31" s="5">
         <v>44813</v>
@@ -1729,12 +1729,12 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="3"/>
-        <v>1124</v>
+        <f>E31+J31</f>
+        <v>2356</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,18 +1742,18 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>915.75</v>
+        <f>C32*D32</f>
+        <v>2136.75</v>
       </c>
       <c r="F32" s="5">
         <v>44813</v>
@@ -1768,12 +1768,12 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
-        <v>1125.75</v>
+        <f>E32+J32</f>
+        <v>2346.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,18 +1781,18 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>907.5</v>
+        <f>C33*D33</f>
+        <v>2117.5</v>
       </c>
       <c r="F33" s="5">
         <v>44813</v>
@@ -1807,12 +1807,12 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="3"/>
-        <v>1127.5</v>
+        <f>E33+J33</f>
+        <v>2337.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1820,18 +1820,18 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>38.5</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>899.25</v>
+        <f>C34*D34</f>
+        <v>2098.25</v>
       </c>
       <c r="F34" s="5">
         <v>44813</v>
@@ -1846,12 +1846,12 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
-        <v>1129.25</v>
+        <f>E34+J34</f>
+        <v>2328.25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1859,18 +1859,18 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2">
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>0.55*15</f>
-        <v>8.25</v>
+        <f>0.55*35</f>
+        <v>19.25</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>445.5</v>
+        <f>C35*D35</f>
+        <v>1039.5</v>
       </c>
       <c r="F35" s="5">
         <v>44813</v>
@@ -1885,12 +1885,12 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
-        <v>685.5</v>
+        <f>E35+J35</f>
+        <v>1279.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1898,18 +1898,18 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2">
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="4">0.55*15</f>
-        <v>8.25</v>
+        <f t="shared" ref="D36:D38" si="2">0.55*35</f>
+        <v>19.25</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>441.375</v>
+        <f>C36*D36</f>
+        <v>1029.875</v>
       </c>
       <c r="F36" s="5">
         <v>44813</v>
@@ -1924,12 +1924,12 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
-        <v>691.375</v>
+        <f>E36+J36</f>
+        <v>1279.875</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1937,18 +1937,18 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="4"/>
-        <v>8.25</v>
+        <f t="shared" si="2"/>
+        <v>19.25</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>437.25</v>
+        <f>C37*D37</f>
+        <v>1020.25</v>
       </c>
       <c r="F37" s="5">
         <v>44813</v>
@@ -1963,12 +1963,12 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>697.25</v>
+        <f>E37+J37</f>
+        <v>1280.25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1976,18 +1976,18 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="4"/>
-        <v>8.25</v>
+        <f t="shared" si="2"/>
+        <v>19.25</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>433.125</v>
+        <f>C38*D38</f>
+        <v>1010.625</v>
       </c>
       <c r="F38" s="5">
         <v>44813</v>
@@ -2002,12 +2002,12 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
-        <v>703.125</v>
+        <f>E38+J38</f>
+        <v>1280.625</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2015,8 +2015,8 @@
         <v>32</v>
       </c>
       <c r="C40" s="8">
-        <f>SUM(K:K)</f>
-        <v>38405.25</v>
+        <f>_xlfn.CEILING.MATH(SUM(K:K))</f>
+        <v>84573</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2030,7 +2030,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <f>MAX(H:H)</f>
@@ -2039,11 +2039,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <f>MAX(K:K)</f>
-        <v>1155</v>
+        <f>MAX(J:J)</f>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1B71A3-19BC-4B9B-950F-39A7BC1E7BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658AFB1E-03C9-4B09-9A48-A071217662DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="1005" windowWidth="21885" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
     <t>Байрамшин</t>
   </si>
   <si>
-    <t>Башкиро́ва</t>
-  </si>
-  <si>
     <t>Гагаркин</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Лучин</t>
   </si>
   <si>
-    <t>Ма́тижева</t>
-  </si>
-  <si>
     <t>Мифтахов</t>
   </si>
   <si>
@@ -82,13 +76,7 @@
     <t>Рафиков</t>
   </si>
   <si>
-    <t>Рахматуло</t>
-  </si>
-  <si>
     <t>Смирнова</t>
-  </si>
-  <si>
-    <t>Соловьев</t>
   </si>
   <si>
     <t>Спирина</t>
@@ -174,6 +162,18 @@
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
+  <si>
+    <t>Рахматулов</t>
+  </si>
+  <si>
+    <t>Башкирова</t>
+  </si>
+  <si>
+    <t>Матижева</t>
+  </si>
+  <si>
+    <t>Соловьёв</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\.mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,11 +205,6 @@
       <sz val="12"/>
       <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
@@ -250,10 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,15 +254,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +488,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -540,38 +535,38 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>47</v>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -590,41 +585,41 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D34" si="0">35 * 1.1</f>
+      <c r="D3" s="11">
+        <f>35 * 1.1</f>
         <v>38.5</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E38" si="1">C3*D3</f>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>2695</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="12">
         <v>44813</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="13">
         <v>44805</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>10</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>2695</v>
       </c>
       <c r="L3" s="2"/>
@@ -644,41 +639,41 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
+        <f t="shared" ref="D3:D34" si="3">35 * 1.1</f>
+        <v>38.5</v>
+      </c>
+      <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E4" s="2">
+        <v>2675.75</v>
+      </c>
+      <c r="F4" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="13">
+        <v>44806</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11">
         <f t="shared" si="1"/>
-        <v>2675.75</v>
-      </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="6">
-        <v>44806</v>
-      </c>
-      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="K4" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="3"/>
         <v>2675.75</v>
       </c>
       <c r="L4" s="2"/>
@@ -698,41 +693,41 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7">
         <v>69</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E5" s="2">
+        <v>2656.5</v>
+      </c>
+      <c r="F5" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="13">
+        <v>44807</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11">
         <f t="shared" si="1"/>
-        <v>2656.5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
-        <v>44807</v>
-      </c>
-      <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="3"/>
         <v>2656.5</v>
       </c>
       <c r="L5" s="2"/>
@@ -752,41 +747,41 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E6" s="2">
+        <v>2637.25</v>
+      </c>
+      <c r="F6" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="13">
+        <v>44808</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11">
         <f t="shared" si="1"/>
-        <v>2637.25</v>
-      </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
-        <v>44808</v>
-      </c>
-      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="K6" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="3"/>
         <v>2637.25</v>
       </c>
       <c r="L6" s="2"/>
@@ -806,41 +801,41 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>68</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>2618</v>
+      </c>
+      <c r="F7" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="13">
+        <v>44809</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="J7" s="11">
         <f t="shared" si="1"/>
-        <v>2618</v>
-      </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
-        <v>44809</v>
-      </c>
-      <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="3"/>
         <v>2618</v>
       </c>
       <c r="L7" s="2"/>
@@ -860,41 +855,41 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E8" s="2">
+        <v>2598.75</v>
+      </c>
+      <c r="F8" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="13">
+        <v>44810</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11">
         <f t="shared" si="1"/>
-        <v>2598.75</v>
-      </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
-        <v>44810</v>
-      </c>
-      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="K8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="3"/>
         <v>2598.75</v>
       </c>
       <c r="L8" s="2"/>
@@ -914,41 +909,41 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
         <v>67</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E9" s="2">
+        <v>2579.5</v>
+      </c>
+      <c r="F9" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="13">
+        <v>44811</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11">
         <f t="shared" si="1"/>
-        <v>2579.5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
-        <v>44811</v>
-      </c>
-      <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="K9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="3"/>
         <v>2579.5</v>
       </c>
       <c r="L9" s="2"/>
@@ -968,41 +963,41 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E10" s="2">
+        <v>2560.25</v>
+      </c>
+      <c r="F10" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="13">
+        <v>44812</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11">
         <f t="shared" si="1"/>
-        <v>2560.25</v>
-      </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
-        <v>44812</v>
-      </c>
-      <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="K10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="3"/>
         <v>2560.25</v>
       </c>
       <c r="L10" s="2"/>
@@ -1022,41 +1017,41 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7">
         <v>66</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E11" s="2">
+        <v>2541</v>
+      </c>
+      <c r="F11" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="13">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11">
         <f t="shared" si="1"/>
-        <v>2541</v>
-      </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="K11" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
         <v>2541</v>
       </c>
       <c r="L11" s="2"/>
@@ -1076,41 +1071,41 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7">
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E12" s="2">
+        <v>2521.75</v>
+      </c>
+      <c r="F12" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="13">
+        <v>44814</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10</v>
+      </c>
+      <c r="J12" s="11">
         <f t="shared" si="1"/>
-        <v>2521.75</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
-        <v>44814</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
         <v>10</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="11">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="3"/>
         <v>2531.75</v>
       </c>
       <c r="L12" s="2"/>
@@ -1130,41 +1125,41 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7">
         <v>65</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E13" s="2">
+        <v>2502.5</v>
+      </c>
+      <c r="F13" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="13">
+        <v>44815</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11">
         <f t="shared" si="1"/>
-        <v>2502.5</v>
-      </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
-        <v>44815</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+      <c r="K13" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="3"/>
         <v>2522.5</v>
       </c>
       <c r="L13" s="2"/>
@@ -1184,41 +1179,41 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E14" s="2">
+        <v>2483.25</v>
+      </c>
+      <c r="F14" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="13">
+        <v>44816</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="1"/>
-        <v>2483.25</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
-        <v>44816</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
+        <v>30</v>
+      </c>
+      <c r="K14" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="3"/>
         <v>2513.25</v>
       </c>
       <c r="L14" s="2"/>
@@ -1238,41 +1233,41 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
         <v>64</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E15" s="2">
+        <v>2464</v>
+      </c>
+      <c r="F15" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="13">
+        <v>44817</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11">
         <f t="shared" si="1"/>
-        <v>2464</v>
-      </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
-        <v>44817</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
+        <v>40</v>
+      </c>
+      <c r="K15" s="11">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="3"/>
         <v>2504</v>
       </c>
       <c r="L15" s="2"/>
@@ -1292,41 +1287,41 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7">
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E16" s="2">
+        <v>2444.75</v>
+      </c>
+      <c r="F16" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="13">
+        <v>44818</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10</v>
+      </c>
+      <c r="J16" s="11">
         <f t="shared" si="1"/>
-        <v>2444.75</v>
-      </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
-        <v>44818</v>
-      </c>
-      <c r="H16" s="4">
-        <v>5</v>
-      </c>
-      <c r="I16" s="4">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
+        <v>50</v>
+      </c>
+      <c r="K16" s="11">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="3"/>
         <v>2494.75</v>
       </c>
       <c r="L16" s="2"/>
@@ -1346,41 +1341,41 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7">
         <v>63</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E17" s="2">
+        <v>2425.5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="13">
+        <v>44819</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
         <f t="shared" si="1"/>
-        <v>2425.5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
-        <v>44819</v>
-      </c>
-      <c r="H17" s="4">
-        <v>6</v>
-      </c>
-      <c r="I17" s="4">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
+        <v>60</v>
+      </c>
+      <c r="K17" s="11">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="3"/>
         <v>2485.5</v>
       </c>
       <c r="L17" s="2"/>
@@ -1400,41 +1395,41 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7">
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E18" s="2">
+        <v>2406.25</v>
+      </c>
+      <c r="F18" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="13">
+        <v>44820</v>
+      </c>
+      <c r="H18" s="7">
+        <v>7</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="11">
         <f t="shared" si="1"/>
-        <v>2406.25</v>
-      </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
-        <v>44820</v>
-      </c>
-      <c r="H18" s="4">
-        <v>7</v>
-      </c>
-      <c r="I18" s="4">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
+        <v>70</v>
+      </c>
+      <c r="K18" s="11">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="3"/>
         <v>2476.25</v>
       </c>
       <c r="L18" s="2"/>
@@ -1454,41 +1449,41 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7">
         <v>62</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E19" s="2">
+        <v>2387</v>
+      </c>
+      <c r="F19" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="13">
+        <v>44821</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="7">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11">
         <f t="shared" si="1"/>
-        <v>2387</v>
-      </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
-        <v>44821</v>
-      </c>
-      <c r="H19" s="4">
-        <v>8</v>
-      </c>
-      <c r="I19" s="4">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
+        <v>80</v>
+      </c>
+      <c r="K19" s="11">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="3"/>
         <v>2467</v>
       </c>
       <c r="L19" s="2"/>
@@ -1508,41 +1503,41 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7">
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E20" s="2">
+        <v>2367.75</v>
+      </c>
+      <c r="F20" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="13">
+        <v>44822</v>
+      </c>
+      <c r="H20" s="7">
+        <v>9</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10</v>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="1"/>
-        <v>2367.75</v>
-      </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
-        <v>44822</v>
-      </c>
-      <c r="H20" s="4">
-        <v>9</v>
-      </c>
-      <c r="I20" s="4">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
+        <v>90</v>
+      </c>
+      <c r="K20" s="11">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="3"/>
         <v>2457.75</v>
       </c>
       <c r="L20" s="2"/>
@@ -1562,41 +1557,41 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7">
         <v>61</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E21" s="2">
+        <v>2348.5</v>
+      </c>
+      <c r="F21" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="13">
+        <v>44823</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7">
+        <v>10</v>
+      </c>
+      <c r="J21" s="11">
         <f t="shared" si="1"/>
-        <v>2348.5</v>
-      </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
-        <v>44823</v>
-      </c>
-      <c r="H21" s="4">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
+        <v>100</v>
+      </c>
+      <c r="K21" s="11">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="3"/>
         <v>2448.5</v>
       </c>
       <c r="L21" s="2"/>
@@ -1616,41 +1611,41 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E22" s="2">
+        <v>2329.25</v>
+      </c>
+      <c r="F22" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="13">
+        <v>44824</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7">
+        <v>10</v>
+      </c>
+      <c r="J22" s="11">
         <f t="shared" si="1"/>
-        <v>2329.25</v>
-      </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
-        <v>44824</v>
-      </c>
-      <c r="H22" s="4">
-        <v>11</v>
-      </c>
-      <c r="I22" s="4">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
+        <v>110</v>
+      </c>
+      <c r="K22" s="11">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="3"/>
         <v>2439.25</v>
       </c>
       <c r="L22" s="2"/>
@@ -1670,41 +1665,41 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7">
         <v>60</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E23" s="2">
+        <v>2310</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="13">
+        <v>44825</v>
+      </c>
+      <c r="H23" s="7">
+        <v>12</v>
+      </c>
+      <c r="I23" s="7">
+        <v>10</v>
+      </c>
+      <c r="J23" s="11">
         <f t="shared" si="1"/>
-        <v>2310</v>
-      </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
-        <v>44825</v>
-      </c>
-      <c r="H23" s="4">
-        <v>12</v>
-      </c>
-      <c r="I23" s="4">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
+        <v>120</v>
+      </c>
+      <c r="K23" s="11">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="3"/>
         <v>2430</v>
       </c>
       <c r="L23" s="2"/>
@@ -1724,41 +1719,41 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E24" s="2">
+        <v>2290.75</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="13">
+        <v>44826</v>
+      </c>
+      <c r="H24" s="7">
+        <v>13</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10</v>
+      </c>
+      <c r="J24" s="11">
         <f t="shared" si="1"/>
-        <v>2290.75</v>
-      </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
-        <v>44826</v>
-      </c>
-      <c r="H24" s="4">
-        <v>13</v>
-      </c>
-      <c r="I24" s="4">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
+        <v>130</v>
+      </c>
+      <c r="K24" s="11">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="3"/>
         <v>2420.75</v>
       </c>
       <c r="L24" s="2"/>
@@ -1778,41 +1773,41 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
         <v>59</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E25" s="2">
+        <v>2271.5</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="13">
+        <v>44827</v>
+      </c>
+      <c r="H25" s="7">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>10</v>
+      </c>
+      <c r="J25" s="11">
         <f t="shared" si="1"/>
-        <v>2271.5</v>
-      </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
-        <v>44827</v>
-      </c>
-      <c r="H25" s="4">
-        <v>14</v>
-      </c>
-      <c r="I25" s="4">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
+        <v>140</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="3"/>
         <v>2411.5</v>
       </c>
       <c r="L25" s="2"/>
@@ -1832,41 +1827,41 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7">
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E26" s="2">
+        <v>2252.25</v>
+      </c>
+      <c r="F26" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="13">
+        <v>44828</v>
+      </c>
+      <c r="H26" s="7">
+        <v>15</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10</v>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>2252.25</v>
-      </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
-        <v>44828</v>
-      </c>
-      <c r="H26" s="4">
-        <v>15</v>
-      </c>
-      <c r="I26" s="4">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
+        <v>150</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="3"/>
         <v>2402.25</v>
       </c>
       <c r="L26" s="2"/>
@@ -1886,41 +1881,41 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7">
         <v>58</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E27" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F27" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="13">
+        <v>44829</v>
+      </c>
+      <c r="H27" s="7">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7">
+        <v>10</v>
+      </c>
+      <c r="J27" s="11">
         <f t="shared" si="1"/>
-        <v>2233</v>
-      </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
-        <v>44829</v>
-      </c>
-      <c r="H27" s="4">
-        <v>16</v>
-      </c>
-      <c r="I27" s="4">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
+        <v>160</v>
+      </c>
+      <c r="K27" s="11">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="3"/>
         <v>2393</v>
       </c>
       <c r="L27" s="2"/>
@@ -1940,41 +1935,41 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7">
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E28" s="2">
+        <v>2213.75</v>
+      </c>
+      <c r="F28" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="13">
+        <v>44830</v>
+      </c>
+      <c r="H28" s="7">
+        <v>17</v>
+      </c>
+      <c r="I28" s="7">
+        <v>10</v>
+      </c>
+      <c r="J28" s="11">
         <f t="shared" si="1"/>
-        <v>2213.75</v>
-      </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
-        <v>44830</v>
-      </c>
-      <c r="H28" s="4">
-        <v>17</v>
-      </c>
-      <c r="I28" s="4">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+        <v>170</v>
+      </c>
+      <c r="K28" s="11">
         <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="3"/>
         <v>2383.75</v>
       </c>
       <c r="L28" s="2"/>
@@ -1994,41 +1989,41 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7">
         <v>57</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E29" s="2">
+        <v>2194.5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="13">
+        <v>44831</v>
+      </c>
+      <c r="H29" s="7">
+        <v>18</v>
+      </c>
+      <c r="I29" s="7">
+        <v>10</v>
+      </c>
+      <c r="J29" s="11">
         <f t="shared" si="1"/>
-        <v>2194.5</v>
-      </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
-        <v>44831</v>
-      </c>
-      <c r="H29" s="4">
-        <v>18</v>
-      </c>
-      <c r="I29" s="4">
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
+        <v>180</v>
+      </c>
+      <c r="K29" s="11">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="3"/>
         <v>2374.5</v>
       </c>
       <c r="L29" s="2"/>
@@ -2048,41 +2043,41 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7">
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E30" s="2">
+        <v>2175.25</v>
+      </c>
+      <c r="F30" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="13">
+        <v>44832</v>
+      </c>
+      <c r="H30" s="7">
+        <v>19</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10</v>
+      </c>
+      <c r="J30" s="11">
         <f t="shared" si="1"/>
-        <v>2175.25</v>
-      </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
-        <v>44832</v>
-      </c>
-      <c r="H30" s="4">
-        <v>19</v>
-      </c>
-      <c r="I30" s="4">
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
+        <v>190</v>
+      </c>
+      <c r="K30" s="11">
         <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="3"/>
         <v>2365.25</v>
       </c>
       <c r="L30" s="2"/>
@@ -2102,41 +2097,41 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
         <v>56</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E31" s="2">
+        <v>2156</v>
+      </c>
+      <c r="F31" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="13">
+        <v>44833</v>
+      </c>
+      <c r="H31" s="7">
+        <v>20</v>
+      </c>
+      <c r="I31" s="7">
+        <v>10</v>
+      </c>
+      <c r="J31" s="11">
         <f t="shared" si="1"/>
-        <v>2156</v>
-      </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
-        <v>44833</v>
-      </c>
-      <c r="H31" s="4">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
+        <v>200</v>
+      </c>
+      <c r="K31" s="11">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="3"/>
         <v>2356</v>
       </c>
       <c r="L31" s="2"/>
@@ -2156,41 +2151,41 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7">
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E32" s="2">
+        <v>2136.75</v>
+      </c>
+      <c r="F32" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="13">
+        <v>44834</v>
+      </c>
+      <c r="H32" s="7">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11">
         <f t="shared" si="1"/>
-        <v>2136.75</v>
-      </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
-        <v>44834</v>
-      </c>
-      <c r="H32" s="4">
-        <v>21</v>
-      </c>
-      <c r="I32" s="4">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
+        <v>210</v>
+      </c>
+      <c r="K32" s="11">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="3"/>
         <v>2346.75</v>
       </c>
       <c r="L32" s="2"/>
@@ -2210,41 +2205,41 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7">
         <v>55</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E33" s="2">
+        <v>2117.5</v>
+      </c>
+      <c r="F33" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="13">
+        <v>44835</v>
+      </c>
+      <c r="H33" s="7">
+        <v>22</v>
+      </c>
+      <c r="I33" s="7">
+        <v>10</v>
+      </c>
+      <c r="J33" s="11">
         <f t="shared" si="1"/>
-        <v>2117.5</v>
-      </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
-        <v>44835</v>
-      </c>
-      <c r="H33" s="4">
-        <v>22</v>
-      </c>
-      <c r="I33" s="4">
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
+        <v>220</v>
+      </c>
+      <c r="K33" s="11">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="3"/>
         <v>2337.5</v>
       </c>
       <c r="L33" s="2"/>
@@ -2264,41 +2259,41 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7">
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="11">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="E34" s="2">
+        <v>2098.25</v>
+      </c>
+      <c r="F34" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="13">
+        <v>44836</v>
+      </c>
+      <c r="H34" s="7">
+        <v>23</v>
+      </c>
+      <c r="I34" s="7">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11">
         <f t="shared" si="1"/>
-        <v>2098.25</v>
-      </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
-        <v>44836</v>
-      </c>
-      <c r="H34" s="4">
-        <v>23</v>
-      </c>
-      <c r="I34" s="4">
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
+        <v>230</v>
+      </c>
+      <c r="K34" s="11">
         <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="3"/>
         <v>2328.25</v>
       </c>
       <c r="L34" s="2"/>
@@ -2318,41 +2313,41 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7">
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="11">
         <f>35*1.1/2</f>
         <v>19.25</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="11">
+        <f t="shared" si="0"/>
+        <v>1039.5</v>
+      </c>
+      <c r="F35" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="13">
+        <v>44837</v>
+      </c>
+      <c r="H35" s="7">
+        <v>24</v>
+      </c>
+      <c r="I35" s="7">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11">
         <f t="shared" si="1"/>
-        <v>1039.5</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
-        <v>44837</v>
-      </c>
-      <c r="H35" s="4">
-        <v>24</v>
-      </c>
-      <c r="I35" s="4">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
+        <v>240</v>
+      </c>
+      <c r="K35" s="11">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="3"/>
         <v>1279.5</v>
       </c>
       <c r="L35" s="2"/>
@@ -2372,41 +2367,41 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="7">
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="11">
         <f>35*1.1/2</f>
         <v>19.25</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="11">
+        <f t="shared" si="0"/>
+        <v>1029.875</v>
+      </c>
+      <c r="F36" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="13">
+        <v>44838</v>
+      </c>
+      <c r="H36" s="7">
+        <v>25</v>
+      </c>
+      <c r="I36" s="7">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11">
         <f t="shared" si="1"/>
-        <v>1029.875</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
-        <v>44838</v>
-      </c>
-      <c r="H36" s="4">
-        <v>25</v>
-      </c>
-      <c r="I36" s="4">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
+        <v>250</v>
+      </c>
+      <c r="K36" s="11">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="3"/>
         <v>1279.875</v>
       </c>
       <c r="L36" s="2"/>
@@ -2426,41 +2421,41 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7">
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="11">
         <f>35*1.1/2</f>
         <v>19.25</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="11">
+        <f t="shared" si="0"/>
+        <v>1020.25</v>
+      </c>
+      <c r="F37" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="13">
+        <v>44839</v>
+      </c>
+      <c r="H37" s="7">
+        <v>26</v>
+      </c>
+      <c r="I37" s="7">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11">
         <f t="shared" si="1"/>
-        <v>1020.25</v>
-      </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
-        <v>44839</v>
-      </c>
-      <c r="H37" s="4">
-        <v>26</v>
-      </c>
-      <c r="I37" s="4">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
+        <v>260</v>
+      </c>
+      <c r="K37" s="11">
         <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="3"/>
         <v>1280.25</v>
       </c>
       <c r="L37" s="2"/>
@@ -2480,41 +2475,41 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7">
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="11">
         <f>35*1.1/2</f>
         <v>19.25</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="11">
+        <f t="shared" si="0"/>
+        <v>1010.625</v>
+      </c>
+      <c r="F38" s="12">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="13">
+        <v>44840</v>
+      </c>
+      <c r="H38" s="7">
+        <v>27</v>
+      </c>
+      <c r="I38" s="7">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11">
         <f t="shared" si="1"/>
-        <v>1010.625</v>
-      </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
-        <v>44840</v>
-      </c>
-      <c r="H38" s="4">
-        <v>27</v>
-      </c>
-      <c r="I38" s="4">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
+        <v>270</v>
+      </c>
+      <c r="K38" s="11">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="3"/>
         <v>1280.625</v>
       </c>
       <c r="L38" s="2"/>
@@ -2563,10 +2558,10 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="B40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="11">
         <f>SUM(K3:K38)-0.25</f>
         <v>84572</v>
       </c>
@@ -2596,10 +2591,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="11">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2629,10 +2624,10 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="10">
+      <c r="B42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="14">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2662,10 +2657,10 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="B43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="11">
         <f>MAX(K3:K38)</f>
         <v>2695</v>
       </c>

--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT123\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT123\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D90714-124C-4FD5-8232-F6F376750306}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C504BCAD-58C5-44A6-AA62-D42D432C6D0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7965" xr2:uid="{EA7828D1-7521-4F19-AABC-E6DD6B6E2141}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t>Площадь,кв.м.</t>
-  </si>
-  <si>
     <t>№ кваритиры</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "Итого", руб.</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
@@ -171,13 +162,22 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Максимальная сумма просрочки, руб.</t>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Банницин</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32C36C-4770-4149-AB96-4E38B3359F68}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,37 +573,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -611,17 +611,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>1.1*35</f>
+        <f>A1*1.1</f>
         <v>38.5</v>
       </c>
       <c r="E3" s="7">
-        <f>C3*D3</f>
+        <f t="shared" ref="E3:E38" si="0">C3*D3</f>
         <v>2695</v>
       </c>
       <c r="F3" s="5">
@@ -631,6 +631,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="7">
@@ -641,26 +642,28 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>E3+J3</f>
+        <f t="shared" ref="K3:K38" si="1">E3+J3</f>
         <v>2695</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D38" si="0">1.1*35</f>
+        <f>D3</f>
         <v>38.5</v>
       </c>
       <c r="E4" s="7">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>2675.75</v>
       </c>
       <c r="F4" s="5">
@@ -670,36 +673,39 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
+        <f>IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="7">
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f>E4+J4</f>
+        <f t="shared" si="1"/>
         <v>2675.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="3">D4</f>
         <v>38.5</v>
       </c>
       <c r="E5" s="7">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>2656.5</v>
       </c>
       <c r="F5" s="5">
@@ -709,36 +715,39 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
+        <f>IF(G5&gt;F5,G5-F5,0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="7">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f>E5+J5</f>
+        <f t="shared" si="1"/>
         <v>2656.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
+        <f>C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E6" s="7">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>2637.25</v>
       </c>
       <c r="F6" s="5">
@@ -748,36 +757,39 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
+        <f>IF(G6&gt;F6,G6-F6,0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="7">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f>E6+J6</f>
+        <f t="shared" si="1"/>
         <v>2637.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
+        <f>C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E7" s="7">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>2618</v>
       </c>
       <c r="F7" s="5">
@@ -787,36 +799,39 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
+        <f>IF(G7&gt;F7,G7-F7,0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="7">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f>E7+J7</f>
+        <f t="shared" si="1"/>
         <v>2618</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
+        <f>C7-0.5</f>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E8" s="7">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>2598.75</v>
       </c>
       <c r="F8" s="5">
@@ -826,36 +841,39 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
+        <f>IF(G8&gt;F8,G8-F8,0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f>E8+J8</f>
+        <f t="shared" si="1"/>
         <v>2598.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
+        <f>C8-0.5</f>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E9" s="7">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>2579.5</v>
       </c>
       <c r="F9" s="5">
@@ -865,36 +883,39 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
+        <f>IF(G9&gt;F9,G9-F9,0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="7">
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f>E9+J9</f>
+        <f t="shared" si="1"/>
         <v>2579.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
+        <f>C9-0.5</f>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E10" s="7">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>2560.25</v>
       </c>
       <c r="F10" s="5">
@@ -904,36 +925,39 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
+        <f>IF(G10&gt;F10,G10-F10,0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f>E10+J10</f>
+        <f t="shared" si="1"/>
         <v>2560.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f>A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
+        <f>C10-0.5</f>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E11" s="7">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>2541</v>
       </c>
       <c r="F11" s="5">
@@ -943,36 +967,39 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
+        <f>IF(G11&gt;F11,G11-F11,0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f>E11+J11</f>
+        <f t="shared" si="1"/>
         <v>2541</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f>A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
+        <f>C11-0.5</f>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E12" s="7">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>2521.75</v>
       </c>
       <c r="F12" s="5">
@@ -982,36 +1009,39 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
+        <f>IF(G12&gt;F12,G12-F12,0)</f>
         <v>1</v>
       </c>
       <c r="I12" s="7">
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f>E12+J12</f>
+        <f t="shared" si="1"/>
         <v>2531.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f>A12+1</f>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
+        <f>C12-0.5</f>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E13" s="7">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>2502.5</v>
       </c>
       <c r="F13" s="5">
@@ -1021,36 +1051,39 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
+        <f>IF(G13&gt;F13,G13-F13,0)</f>
         <v>2</v>
       </c>
       <c r="I13" s="7">
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f>E13+J13</f>
+        <f t="shared" si="1"/>
         <v>2522.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f>A13+1</f>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
+        <f>C13-0.5</f>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E14" s="7">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>2483.25</v>
       </c>
       <c r="F14" s="5">
@@ -1060,36 +1093,39 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
+        <f>IF(G14&gt;F14,G14-F14,0)</f>
         <v>3</v>
       </c>
       <c r="I14" s="7">
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f>E14+J14</f>
+        <f t="shared" si="1"/>
         <v>2513.25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f>A14+1</f>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
+        <f>C14-0.5</f>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E15" s="7">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>2464</v>
       </c>
       <c r="F15" s="5">
@@ -1099,36 +1135,39 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
+        <f>IF(G15&gt;F15,G15-F15,0)</f>
         <v>4</v>
       </c>
       <c r="I15" s="7">
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f>E15+J15</f>
+        <f t="shared" si="1"/>
         <v>2504</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f>A15+1</f>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
+        <f>C15-0.5</f>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E16" s="7">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>2444.75</v>
       </c>
       <c r="F16" s="5">
@@ -1138,36 +1177,39 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
+        <f>IF(G16&gt;F16,G16-F16,0)</f>
         <v>5</v>
       </c>
       <c r="I16" s="7">
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f>E16+J16</f>
+        <f t="shared" si="1"/>
         <v>2494.75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f>A16+1</f>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
+        <f>C16-0.5</f>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E17" s="7">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>2425.5</v>
       </c>
       <c r="F17" s="5">
@@ -1177,36 +1219,39 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
+        <f>IF(G17&gt;F17,G17-F17,0)</f>
         <v>6</v>
       </c>
       <c r="I17" s="7">
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f>E17+J17</f>
+        <f t="shared" si="1"/>
         <v>2485.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f>A17+1</f>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
+        <f>C17-0.5</f>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E18" s="7">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>2406.25</v>
       </c>
       <c r="F18" s="5">
@@ -1216,36 +1261,39 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
+        <f>IF(G18&gt;F18,G18-F18,0)</f>
         <v>7</v>
       </c>
       <c r="I18" s="7">
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f>E18+J18</f>
+        <f t="shared" si="1"/>
         <v>2476.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f>A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
+        <f>C18-0.5</f>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E19" s="7">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>2387</v>
       </c>
       <c r="F19" s="5">
@@ -1255,36 +1303,39 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
+        <f>IF(G19&gt;F19,G19-F19,0)</f>
         <v>8</v>
       </c>
       <c r="I19" s="7">
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f>E19+J19</f>
+        <f t="shared" si="1"/>
         <v>2467</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f>A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
+        <f>C19-0.5</f>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E20" s="7">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>2367.75</v>
       </c>
       <c r="F20" s="5">
@@ -1294,36 +1345,39 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
+        <f>IF(G20&gt;F20,G20-F20,0)</f>
         <v>9</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f>E20+J20</f>
+        <f t="shared" si="1"/>
         <v>2457.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f>A20+1</f>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
+        <f>C20-0.5</f>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E21" s="7">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>2348.5</v>
       </c>
       <c r="F21" s="5">
@@ -1333,36 +1387,39 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
+        <f>IF(G21&gt;F21,G21-F21,0)</f>
         <v>10</v>
       </c>
       <c r="I21" s="7">
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f>E21+J21</f>
+        <f t="shared" si="1"/>
         <v>2448.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f>A21+1</f>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
+        <f>C21-0.5</f>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E22" s="7">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>2329.25</v>
       </c>
       <c r="F22" s="5">
@@ -1372,36 +1429,39 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
+        <f>IF(G22&gt;F22,G22-F22,0)</f>
         <v>11</v>
       </c>
       <c r="I22" s="7">
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f>E22+J22</f>
+        <f t="shared" si="1"/>
         <v>2439.25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f>A22+1</f>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
+        <f>C22-0.5</f>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E23" s="7">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>2310</v>
       </c>
       <c r="F23" s="5">
@@ -1411,36 +1471,39 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
+        <f>IF(G23&gt;F23,G23-F23,0)</f>
         <v>12</v>
       </c>
       <c r="I23" s="7">
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f>E23+J23</f>
+        <f t="shared" si="1"/>
         <v>2430</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f>A23+1</f>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
+        <f>C23-0.5</f>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E24" s="7">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>2290.75</v>
       </c>
       <c r="F24" s="5">
@@ -1450,36 +1513,39 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
+        <f>IF(G24&gt;F24,G24-F24,0)</f>
         <v>13</v>
       </c>
       <c r="I24" s="7">
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f>E24+J24</f>
+        <f t="shared" si="1"/>
         <v>2420.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f>A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
+        <f>C24-0.5</f>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E25" s="7">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>2271.5</v>
       </c>
       <c r="F25" s="5">
@@ -1489,36 +1555,39 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
+        <f>IF(G25&gt;F25,G25-F25,0)</f>
         <v>14</v>
       </c>
       <c r="I25" s="7">
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f>E25+J25</f>
+        <f t="shared" si="1"/>
         <v>2411.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f>A25+1</f>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
+        <f>C25-0.5</f>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E26" s="7">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>2252.25</v>
       </c>
       <c r="F26" s="5">
@@ -1528,36 +1597,39 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
+        <f>IF(G26&gt;F26,G26-F26,0)</f>
         <v>15</v>
       </c>
       <c r="I26" s="7">
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f>E26+J26</f>
+        <f t="shared" si="1"/>
         <v>2402.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f>A26+1</f>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E27" s="7">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>2233</v>
       </c>
       <c r="F27" s="5">
@@ -1567,36 +1639,39 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
+        <f>IF(G27&gt;F27,G27-F27,0)</f>
         <v>16</v>
       </c>
       <c r="I27" s="7">
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f>E27+J27</f>
+        <f t="shared" si="1"/>
         <v>2393</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f>A27+1</f>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
+        <f>C27-0.5</f>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E28" s="7">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>2213.75</v>
       </c>
       <c r="F28" s="5">
@@ -1606,36 +1681,39 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
+        <f>IF(G28&gt;F28,G28-F28,0)</f>
         <v>17</v>
       </c>
       <c r="I28" s="7">
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f>E28+J28</f>
+        <f t="shared" si="1"/>
         <v>2383.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f>A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2">
+        <f>C28-0.5</f>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E29" s="7">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>2194.5</v>
       </c>
       <c r="F29" s="5">
@@ -1645,36 +1723,39 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
+        <f>IF(G29&gt;F29,G29-F29,0)</f>
         <v>18</v>
       </c>
       <c r="I29" s="7">
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f>E29+J29</f>
+        <f t="shared" si="1"/>
         <v>2374.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f>A29+1</f>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
+        <f>C29-0.5</f>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E30" s="7">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>2175.25</v>
       </c>
       <c r="F30" s="5">
@@ -1684,36 +1765,39 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
+        <f>IF(G30&gt;F30,G30-F30,0)</f>
         <v>19</v>
       </c>
       <c r="I30" s="7">
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f>E30+J30</f>
+        <f t="shared" si="1"/>
         <v>2365.25</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f>A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2">
+        <f>C30-0.5</f>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E31" s="7">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>2156</v>
       </c>
       <c r="F31" s="5">
@@ -1723,36 +1807,39 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
+        <f>IF(G31&gt;F31,G31-F31,0)</f>
         <v>20</v>
       </c>
       <c r="I31" s="7">
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f>E31+J31</f>
+        <f t="shared" si="1"/>
         <v>2356</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f>A31+1</f>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
+        <f>C31-0.5</f>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E32" s="7">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>2136.75</v>
       </c>
       <c r="F32" s="5">
@@ -1762,36 +1849,39 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
+        <f>IF(G32&gt;F32,G32-F32,0)</f>
         <v>21</v>
       </c>
       <c r="I32" s="7">
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f>E32+J32</f>
+        <f t="shared" si="1"/>
         <v>2346.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f>A32+1</f>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2">
+        <f>C32-0.5</f>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E33" s="7">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>2117.5</v>
       </c>
       <c r="F33" s="5">
@@ -1801,36 +1891,39 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
+        <f>IF(G33&gt;F33,G33-F33,0)</f>
         <v>22</v>
       </c>
       <c r="I33" s="7">
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f>E33+J33</f>
+        <f t="shared" si="1"/>
         <v>2337.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f>A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
+        <f>C33-0.5</f>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38.5</v>
       </c>
       <c r="E34" s="7">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>2098.25</v>
       </c>
       <c r="F34" s="5">
@@ -1840,36 +1933,39 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
+        <f>IF(G34&gt;F34,G34-F34,0)</f>
         <v>23</v>
       </c>
       <c r="I34" s="7">
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f>E34+J34</f>
+        <f t="shared" si="1"/>
         <v>2328.25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f>A34+1</f>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
+        <f>C34-0.5</f>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>0.55*35</f>
+        <f>D3/2</f>
         <v>19.25</v>
       </c>
       <c r="E35" s="7">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>1039.5</v>
       </c>
       <c r="F35" s="5">
@@ -1879,36 +1975,39 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
+        <f>IF(G35&gt;F35,G35-F35,0)</f>
         <v>24</v>
       </c>
       <c r="I35" s="7">
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f>E35+J35</f>
+        <f t="shared" si="1"/>
         <v>1279.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f>A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2">
+        <f>C35-0.5</f>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="2">0.55*35</f>
+        <f>D3/2</f>
         <v>19.25</v>
       </c>
       <c r="E36" s="7">
-        <f>C36*D36</f>
+        <f t="shared" si="0"/>
         <v>1029.875</v>
       </c>
       <c r="F36" s="5">
@@ -1918,36 +2017,39 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
+        <f>IF(G36&gt;F36,G36-F36,0)</f>
         <v>25</v>
       </c>
       <c r="I36" s="7">
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f>E36+J36</f>
+        <f t="shared" si="1"/>
         <v>1279.875</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f>A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="2">
+        <f>C36-0.5</f>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="2"/>
+        <f>D3/2</f>
         <v>19.25</v>
       </c>
       <c r="E37" s="7">
-        <f>C37*D37</f>
+        <f t="shared" si="0"/>
         <v>1020.25</v>
       </c>
       <c r="F37" s="5">
@@ -1957,36 +2059,39 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
+        <f>IF(G37&gt;F37,G37-F37,0)</f>
         <v>26</v>
       </c>
       <c r="I37" s="7">
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f>E37+J37</f>
+        <f t="shared" si="1"/>
         <v>1280.25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f>A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
+        <f>C37-0.5</f>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="2"/>
+        <f>D3/2</f>
         <v>19.25</v>
       </c>
       <c r="E38" s="7">
-        <f>C38*D38</f>
+        <f t="shared" si="0"/>
         <v>1010.625</v>
       </c>
       <c r="F38" s="5">
@@ -1996,32 +2101,33 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
+        <f>IF(G38&gt;F38,G38-F38,0)</f>
         <v>27</v>
       </c>
       <c r="I38" s="7">
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f>E38+J38</f>
+        <f t="shared" si="1"/>
         <v>1280.625</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C40" s="8">
-        <f>_xlfn.CEILING.MATH(SUM(K:K))</f>
-        <v>84573</v>
+        <f>FLOOR(SUM(K:K),1)</f>
+        <v>84572</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2030,7 +2136,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <f>MAX(H:H)</f>
@@ -2039,11 +2145,11 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <f>MAX(J:J)</f>
-        <v>270</v>
+        <f>MAX(K:K)</f>
+        <v>2695</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT123\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C504BCAD-58C5-44A6-AA62-D42D432C6D0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE64DF-D89C-44CE-B39C-70211750F808}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7965" xr2:uid="{EA7828D1-7521-4F19-AABC-E6DD6B6E2141}"/>
   </bookViews>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +235,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32C36C-4770-4149-AB96-4E38B3359F68}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,7 +602,7 @@
       <c r="I2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -631,7 +634,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(G3&gt;F3,G3-F3,0)</f>
+        <f t="shared" ref="H3:H38" si="1">IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="7">
@@ -642,20 +645,20 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="1">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>2695</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>A3+1</f>
+        <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2">
-        <f>C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
@@ -673,35 +676,35 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f>IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="7">
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="5">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2675.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f>A4+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <f>C4-0.5</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D34" si="3">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>38.5</v>
       </c>
       <c r="E5" s="7">
@@ -715,35 +718,35 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f>IF(G5&gt;F5,G5-F5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="7">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2656.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f>A5+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2">
-        <f>C5-0.5</f>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E6" s="7">
@@ -757,35 +760,35 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(G6&gt;F6,G6-F6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="7">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2637.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>A6+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f>C6-0.5</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E7" s="7">
@@ -799,35 +802,35 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(G7&gt;F7,G7-F7,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="7">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2618</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f>A7+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <f>C7-0.5</f>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E8" s="7">
@@ -841,35 +844,35 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(G8&gt;F8,G8-F8,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2598.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f>A8+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2">
-        <f>C8-0.5</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E9" s="7">
@@ -883,35 +886,35 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(G9&gt;F9,G9-F9,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="7">
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2579.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f>A9+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <f>C9-0.5</f>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E10" s="7">
@@ -925,35 +928,35 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f>IF(G10&gt;F10,G10-F10,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2560.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f>A10+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2">
-        <f>C10-0.5</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E11" s="7">
@@ -967,35 +970,35 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f>IF(G11&gt;F11,G11-F11,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2541</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f>A11+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <f>C11-0.5</f>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E12" s="7">
@@ -1009,35 +1012,35 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f>IF(G12&gt;F12,G12-F12,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="7">
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2531.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f>A12+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <f>C12-0.5</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E13" s="7">
@@ -1051,35 +1054,35 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f>IF(G13&gt;F13,G13-F13,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="7">
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2522.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f>A13+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2">
-        <f>C13-0.5</f>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E14" s="7">
@@ -1093,35 +1096,35 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(G14&gt;F14,G14-F14,0)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="7">
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2513.25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f>A14+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2">
-        <f>C14-0.5</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E15" s="7">
@@ -1135,35 +1138,35 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f>IF(G15&gt;F15,G15-F15,0)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="7">
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2504</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f>A15+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2">
-        <f>C15-0.5</f>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E16" s="7">
@@ -1177,35 +1180,35 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(G16&gt;F16,G16-F16,0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="7">
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2494.75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f>A16+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2">
-        <f>C16-0.5</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E17" s="7">
@@ -1219,35 +1222,35 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f>IF(G17&gt;F17,G17-F17,0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="7">
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2485.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f>A17+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <f>C17-0.5</f>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E18" s="7">
@@ -1261,35 +1264,35 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f>IF(G18&gt;F18,G18-F18,0)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="7">
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2476.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f>A18+1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2">
-        <f>C18-0.5</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E19" s="7">
@@ -1303,35 +1306,35 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f>IF(G19&gt;F19,G19-F19,0)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="7">
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2467</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f>A19+1</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2">
-        <f>C19-0.5</f>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E20" s="7">
@@ -1345,35 +1348,35 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f>IF(G20&gt;F20,G20-F20,0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="7">
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2457.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f>A20+1</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2">
-        <f>C20-0.5</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E21" s="7">
@@ -1387,35 +1390,35 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f>IF(G21&gt;F21,G21-F21,0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="7">
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2448.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f>A21+1</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="2">
-        <f>C21-0.5</f>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E22" s="7">
@@ -1429,35 +1432,35 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f>IF(G22&gt;F22,G22-F22,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="7">
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2439.25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f>A22+1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="2">
-        <f>C22-0.5</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E23" s="7">
@@ -1471,35 +1474,35 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f>IF(G23&gt;F23,G23-F23,0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="7">
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2430</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f>A23+1</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
-        <f>C23-0.5</f>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E24" s="7">
@@ -1513,35 +1516,35 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f>IF(G24&gt;F24,G24-F24,0)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="7">
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2420.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f>A24+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <f>C24-0.5</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E25" s="7">
@@ -1555,35 +1558,35 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f>IF(G25&gt;F25,G25-F25,0)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="7">
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2411.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f>A25+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <f>C25-0.5</f>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E26" s="7">
@@ -1597,35 +1600,35 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f>IF(G26&gt;F26,G26-F26,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="7">
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2402.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f>A26+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
-        <f>C26-0.5</f>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E27" s="7">
@@ -1639,35 +1642,35 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f>IF(G27&gt;F27,G27-F27,0)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="7">
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2393</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f>A27+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <f>C27-0.5</f>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E28" s="7">
@@ -1681,35 +1684,35 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f>IF(G28&gt;F28,G28-F28,0)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="7">
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2383.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f>A28+1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <f>C28-0.5</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E29" s="7">
@@ -1723,35 +1726,35 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f>IF(G29&gt;F29,G29-F29,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="7">
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2374.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f>A29+1</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f>C29-0.5</f>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E30" s="7">
@@ -1765,35 +1768,35 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f>IF(G30&gt;F30,G30-F30,0)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="7">
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2365.25</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f>A30+1</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <f>C30-0.5</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E31" s="7">
@@ -1807,35 +1810,35 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f>IF(G31&gt;F31,G31-F31,0)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="7">
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2356</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f>A31+1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <f>C31-0.5</f>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E32" s="7">
@@ -1849,35 +1852,35 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f>IF(G32&gt;F32,G32-F32,0)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="7">
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2346.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f>A32+1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <f>C32-0.5</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E33" s="7">
@@ -1891,35 +1894,35 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f>IF(G33&gt;F33,G33-F33,0)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="7">
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2337.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f>A33+1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
-        <f>C33-0.5</f>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>38.5</v>
       </c>
       <c r="E34" s="7">
@@ -1933,31 +1936,31 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f>IF(G34&gt;F34,G34-F34,0)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="7">
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2328.25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f>A34+1</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f>C34-0.5</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -1975,31 +1978,31 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f>IF(G35&gt;F35,G35-F35,0)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="7">
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1279.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f>A35+1</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="2">
-        <f>C35-0.5</f>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2017,31 +2020,31 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f>IF(G36&gt;F36,G36-F36,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="7">
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1279.875</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f>A36+1</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="2">
-        <f>C36-0.5</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2059,31 +2062,31 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f>IF(G37&gt;F37,G37-F37,0)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="7">
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1280.25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f>A37+1</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="2">
-        <f>C37-0.5</f>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2101,18 +2104,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f>IF(G38&gt;F38,G38-F38,0)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="7">
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1280.625</v>
       </c>
     </row>

--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT123\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCE64DF-D89C-44CE-B39C-70211750F808}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1DCE1-8259-417F-A88F-1A8FAA755575}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7965" xr2:uid="{EA7828D1-7521-4F19-AABC-E6DD6B6E2141}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>№ кваритиры</t>
-  </si>
-  <si>
     <t>Адельвахаб</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Банницин</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,37 +576,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C38" si="4">C3-0.5</f>
@@ -697,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="4"/>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="4"/>
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="4"/>
@@ -823,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="4"/>
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="4"/>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="4"/>
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="4"/>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="4"/>
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="4"/>
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="4"/>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -1159,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -1201,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -1243,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -1327,7 +1327,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -1411,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -1453,7 +1453,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
@@ -1495,7 +1495,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
@@ -1537,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="4"/>
@@ -1579,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="4"/>
@@ -1621,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="4"/>
@@ -1663,7 +1663,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="4"/>
@@ -1705,7 +1705,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="4"/>
@@ -1747,7 +1747,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="4"/>
@@ -1789,7 +1789,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="4"/>
@@ -1831,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="4"/>
@@ -1873,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="4"/>
@@ -1915,7 +1915,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="4"/>
@@ -1957,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="4"/>
@@ -1999,7 +1999,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="4"/>
@@ -2041,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
@@ -2083,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="8">
         <f>FLOOR(SUM(K:K),1)</f>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42">
         <f>MAX(H:H)</f>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <f>MAX(K:K)</f>

--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT123\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC1DCE1-8259-417F-A88F-1A8FAA755575}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0186C1B6-7064-4794-ADB5-E2263B1DE54C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7965" xr2:uid="{EA7828D1-7521-4F19-AABC-E6DD6B6E2141}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32C36C-4770-4149-AB96-4E38B3359F68}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,9 +670,11 @@
         <v>2675.75</v>
       </c>
       <c r="F4" s="5">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="5">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -680,6 +682,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -712,9 +715,11 @@
         <v>2656.5</v>
       </c>
       <c r="F5" s="5">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="5">
+        <f>G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -722,6 +727,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -754,9 +760,11 @@
         <v>2637.25</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="5">
+        <f>G5+1</f>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -764,6 +772,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -796,9 +805,11 @@
         <v>2618</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="5">
+        <f>G6+1</f>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -806,6 +817,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -838,9 +850,11 @@
         <v>2598.75</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="5">
+        <f>G7+1</f>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -848,6 +862,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -880,9 +895,11 @@
         <v>2579.5</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="5">
+        <f>G8+1</f>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -890,6 +907,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -922,9 +940,11 @@
         <v>2560.25</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="5">
+        <f>G9+1</f>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -932,6 +952,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -964,9 +985,11 @@
         <v>2541</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="5">
+        <f>G10+1</f>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -974,6 +997,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1006,9 +1030,11 @@
         <v>2521.75</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="5">
+        <f>G11+1</f>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1016,6 +1042,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1048,9 +1075,11 @@
         <v>2502.5</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="5">
+        <f>G12+1</f>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1058,6 +1087,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1090,9 +1120,11 @@
         <v>2483.25</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="5">
+        <f>G13+1</f>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1100,6 +1132,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1132,9 +1165,11 @@
         <v>2464</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="5">
+        <f>G14+1</f>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1142,6 +1177,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1174,9 +1210,11 @@
         <v>2444.75</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="5">
+        <f>G15+1</f>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1184,6 +1222,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1216,9 +1255,11 @@
         <v>2425.5</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="5">
+        <f>G16+1</f>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1226,6 +1267,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1258,9 +1300,11 @@
         <v>2406.25</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="5">
+        <f>G17+1</f>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1268,6 +1312,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1300,9 +1345,11 @@
         <v>2387</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="5">
+        <f>G18+1</f>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1310,6 +1357,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1342,9 +1390,11 @@
         <v>2367.75</v>
       </c>
       <c r="F20" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="5">
+        <f>G19+1</f>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1352,6 +1402,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1384,9 +1435,11 @@
         <v>2348.5</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="5">
+        <f>G20+1</f>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1394,6 +1447,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1426,9 +1480,11 @@
         <v>2329.25</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="5">
+        <f>G21+1</f>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1436,6 +1492,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1468,9 +1525,11 @@
         <v>2310</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="5">
+        <f>G22+1</f>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1478,6 +1537,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1510,9 +1570,11 @@
         <v>2290.75</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="5">
+        <f>G23+1</f>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1520,6 +1582,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1552,9 +1615,11 @@
         <v>2271.5</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="5">
+        <f>G24+1</f>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1562,6 +1627,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1594,9 +1660,11 @@
         <v>2252.25</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="5">
+        <f>G25+1</f>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1604,6 +1672,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1636,9 +1705,11 @@
         <v>2233</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="5">
+        <f>G26+1</f>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1646,6 +1717,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1678,9 +1750,11 @@
         <v>2213.75</v>
       </c>
       <c r="F28" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="5">
+        <f>G27+1</f>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1688,6 +1762,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1720,9 +1795,11 @@
         <v>2194.5</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="5">
+        <f>G28+1</f>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1730,6 +1807,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1762,9 +1840,11 @@
         <v>2175.25</v>
       </c>
       <c r="F30" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="5">
+        <f>G29+1</f>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1772,6 +1852,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1804,9 +1885,11 @@
         <v>2156</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="5">
+        <f>G30+1</f>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1814,6 +1897,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1846,9 +1930,11 @@
         <v>2136.75</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="5">
+        <f>G31+1</f>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -1856,6 +1942,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1888,9 +1975,11 @@
         <v>2117.5</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="5">
+        <f>G32+1</f>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -1898,6 +1987,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -1930,9 +2020,11 @@
         <v>2098.25</v>
       </c>
       <c r="F34" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="5">
+        <f>G33+1</f>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -1940,6 +2032,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -1972,9 +2065,11 @@
         <v>1039.5</v>
       </c>
       <c r="F35" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="5">
+        <f>G34+1</f>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -1982,6 +2077,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2014,9 +2110,11 @@
         <v>1029.875</v>
       </c>
       <c r="F36" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="5">
+        <f>G35+1</f>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2024,6 +2122,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2056,9 +2155,11 @@
         <v>1020.25</v>
       </c>
       <c r="F37" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="5">
+        <f>G36+1</f>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2066,6 +2167,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2098,9 +2200,11 @@
         <v>1010.625</v>
       </c>
       <c r="F38" s="5">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="5">
+        <f>G37+1</f>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2108,6 +2212,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="7">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">

--- a/LR3/table_1_35.xlsx
+++ b/LR3/table_1_35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT123\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0186C1B6-7064-4794-ADB5-E2263B1DE54C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680A3D7-235F-457B-9AFF-1BDA760BCDBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="7965" xr2:uid="{EA7828D1-7521-4F19-AABC-E6DD6B6E2141}"/>
   </bookViews>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32C36C-4770-4149-AB96-4E38B3359F68}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2229,7 +2229,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="8">
-        <f>FLOOR(SUM(K:K),1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>84572</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
         <v>30</v>
       </c>
       <c r="C42">
-        <f>MAX(H:H)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <f>MAX(K:K)</f>
+        <f>MAX(K3:K38)</f>
         <v>2695</v>
       </c>
     </row>
